--- a/biology/Botanique/Parrotiopsis/Parrotiopsis.xlsx
+++ b/biology/Botanique/Parrotiopsis/Parrotiopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parrotiopsis est un genre d'arbustes ou de petits arbres à feuilles caduques de la famille des Hamamelidaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (11 juillet 2014)[2], GRIN            (11 juillet 2014)[3] et NCBI  (11 juillet 2014)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (11 juillet 2014), GRIN            (11 juillet 2014) et NCBI  (11 juillet 2014) :
 Parrotiopsis jacquemontiana (Decne.) Rehder
-Selon The Plant List            (11 juillet 2014)[5] et Tropicos                                           (11 juillet 2014)[1] :
+Selon The Plant List            (11 juillet 2014) et Tropicos                                           (11 juillet 2014) :
 Parrotiopsis involucrata (Falc. ex Nied.) C.K. Schneid.
 Parrotiopsis jacquemontiana (Decne.) Rehder</t>
         </is>
